--- a/xls_data/2019-3.xlsx
+++ b/xls_data/2019-3.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="570">
   <si>
     <t>ნივთიერება</t>
   </si>
@@ -554,6 +554,804 @@
     <t>62.88</t>
   </si>
   <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>38.34</t>
+  </si>
+  <si>
+    <t>69.41</t>
+  </si>
+  <si>
+    <t>7.62</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>36.85</t>
+  </si>
+  <si>
+    <t>65.97</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>21.21</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>13.12</t>
+  </si>
+  <si>
+    <t>25.47</t>
+  </si>
+  <si>
+    <t>25.62</t>
+  </si>
+  <si>
+    <t>15.58</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>43.70</t>
+  </si>
+  <si>
+    <t>28.12</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>30.29</t>
+  </si>
+  <si>
+    <t>46.88</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>41.47</t>
+  </si>
+  <si>
+    <t>66.47</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>46.03</t>
+  </si>
+  <si>
+    <t>83.82</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>37.32</t>
+  </si>
+  <si>
+    <t>59.69</t>
+  </si>
+  <si>
+    <t>16.25</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>12.70</t>
+  </si>
+  <si>
+    <t>23.53</t>
+  </si>
+  <si>
+    <t>22.38</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>16.65</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>20.98</t>
+  </si>
+  <si>
+    <t>38.61</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>22.30</t>
+  </si>
+  <si>
+    <t>36.52</t>
+  </si>
+  <si>
+    <t>36.38</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>26.21</t>
+  </si>
+  <si>
+    <t>40.25</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>36.66</t>
+  </si>
+  <si>
+    <t>41.88</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>17.01</t>
+  </si>
+  <si>
+    <t>30.70</t>
+  </si>
+  <si>
+    <t>43.75</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>19.94</t>
+  </si>
+  <si>
+    <t>66.62</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>19.92</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>19.18</t>
+  </si>
+  <si>
+    <t>71.62</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>21.31</t>
+  </si>
+  <si>
+    <t>64.62</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>15.46</t>
+  </si>
+  <si>
+    <t>25.64</t>
+  </si>
+  <si>
+    <t>45.12</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>32.87</t>
+  </si>
+  <si>
+    <t>66.38</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>21.38</t>
+  </si>
+  <si>
+    <t>36.23</t>
+  </si>
+  <si>
+    <t>40.12</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>25.32</t>
+  </si>
+  <si>
+    <t>43.25</t>
+  </si>
+  <si>
+    <t>66.25</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>17.53</t>
+  </si>
+  <si>
+    <t>30.15</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>56.88</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>20.89</t>
+  </si>
+  <si>
+    <t>52.88</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>19.44</t>
+  </si>
+  <si>
+    <t>54.43</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>56.73</t>
+  </si>
+  <si>
+    <t>82.03</t>
+  </si>
+  <si>
+    <t>13.03</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>44.19</t>
+  </si>
+  <si>
+    <t>50.10</t>
+  </si>
+  <si>
+    <t>74.21</t>
+  </si>
+  <si>
+    <t>32.26</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>40.87</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>13.24</t>
+  </si>
+  <si>
+    <t>45.61</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>47.37</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>22.67</t>
+  </si>
+  <si>
+    <t>33.46</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>46.25</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>45.04</t>
+  </si>
+  <si>
+    <t>60.38</t>
+  </si>
+  <si>
+    <t>21.67</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>52.07</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>55.46</t>
+  </si>
+  <si>
+    <t>75.77</t>
+  </si>
+  <si>
+    <t>22.26</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>50.53</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>67.63</t>
+  </si>
+  <si>
+    <t>92.92</t>
+  </si>
+  <si>
+    <t>12.60</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>52.97</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>71.21</t>
+  </si>
+  <si>
+    <t>100.56</t>
+  </si>
+  <si>
+    <t>16.26</t>
+  </si>
+  <si>
+    <t>40.42</t>
+  </si>
+  <si>
+    <t>54.07</t>
+  </si>
+  <si>
+    <t>69.56</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>34.76</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>15.28</t>
+  </si>
+  <si>
+    <t>22.87</t>
+  </si>
+  <si>
+    <t>23.72</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>42.14</t>
+  </si>
+  <si>
+    <t>24.04</t>
+  </si>
+  <si>
+    <t>35.18</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>43.37</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>29.97</t>
+  </si>
+  <si>
+    <t>42.08</t>
+  </si>
+  <si>
+    <t>21.19</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>46.33</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>34.92</t>
+  </si>
+  <si>
+    <t>47.67</t>
+  </si>
+  <si>
+    <t>29.63</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>51.49</t>
+  </si>
+  <si>
+    <t>42.15</t>
+  </si>
+  <si>
+    <t>56.33</t>
+  </si>
+  <si>
+    <t>30.68</t>
+  </si>
+  <si>
+    <t>49.31</t>
+  </si>
+  <si>
+    <t>36.58</t>
+  </si>
+  <si>
+    <t>47.35</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>33.94</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>23.34</t>
+  </si>
+  <si>
+    <t>34.04</t>
+  </si>
+  <si>
+    <t>40.36</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>20.47</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>13.82</t>
+  </si>
+  <si>
+    <t>57.77</t>
+  </si>
+  <si>
+    <t>24.41</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>12.56</t>
+  </si>
+  <si>
+    <t>50.58</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>21.25</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>10.35</t>
+  </si>
+  <si>
+    <t>65.73</t>
+  </si>
+  <si>
+    <t>44.02</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>15.64</t>
+  </si>
+  <si>
+    <t>54.32</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>38.78</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>24.53</t>
+  </si>
+  <si>
+    <t>34.42</t>
+  </si>
+  <si>
+    <t>45.26</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>35.46</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>16.16</t>
+  </si>
+  <si>
+    <t>23.28</t>
+  </si>
+  <si>
+    <t>67.47</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>49.93</t>
+  </si>
+  <si>
+    <t>26.91</t>
+  </si>
+  <si>
+    <t>34.21</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>34.85</t>
+  </si>
+  <si>
+    <t>47.75</t>
+  </si>
+  <si>
+    <t>59.51</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>34.39</t>
+  </si>
+  <si>
+    <t>17.19</t>
+  </si>
+  <si>
+    <t>23.67</t>
+  </si>
+  <si>
+    <t>59.43</t>
+  </si>
+  <si>
+    <t>33.35</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>9.87</t>
+  </si>
+  <si>
+    <t>51.01</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>39.73</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>13.95</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>43.24</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>11.75</t>
+  </si>
+  <si>
+    <t>42.59</t>
+  </si>
+  <si>
     <t>85.33</t>
   </si>
   <si>
@@ -689,9 +1487,6 @@
     <t>16.88</t>
   </si>
   <si>
-    <t>2.33</t>
-  </si>
-  <si>
     <t>41.25</t>
   </si>
   <si>
@@ -704,30 +1499,18 @@
     <t>59.32</t>
   </si>
   <si>
-    <t>21.38</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
     <t>49.46</t>
   </si>
   <si>
     <t>20.04</t>
   </si>
   <si>
-    <t>12.70</t>
-  </si>
-  <si>
     <t>18.64</t>
   </si>
   <si>
     <t>14.12</t>
   </si>
   <si>
-    <t>1.04</t>
-  </si>
-  <si>
     <t>23.45</t>
   </si>
   <si>
@@ -761,9 +1544,6 @@
     <t>19.46</t>
   </si>
   <si>
-    <t>38.61</t>
-  </si>
-  <si>
     <t>67.03</t>
   </si>
   <si>
@@ -779,9 +1559,6 @@
     <t>53.01</t>
   </si>
   <si>
-    <t>28.12</t>
-  </si>
-  <si>
     <t>1.12</t>
   </si>
   <si>
@@ -800,9 +1577,6 @@
     <t>30.12</t>
   </si>
   <si>
-    <t>1.20</t>
-  </si>
-  <si>
     <t>54.67</t>
   </si>
   <si>
@@ -815,9 +1589,6 @@
     <t>32.88</t>
   </si>
   <si>
-    <t>1.14</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -857,9 +1628,6 @@
     <t>66.50</t>
   </si>
   <si>
-    <t>0.60</t>
-  </si>
-  <si>
     <t>52.04</t>
   </si>
   <si>
@@ -965,9 +1733,6 @@
     <t>55.83</t>
   </si>
   <si>
-    <t>27.25</t>
-  </si>
-  <si>
     <t>14.83</t>
   </si>
   <si>
@@ -1001,820 +1766,7 @@
     <t>11.27</t>
   </si>
   <si>
-    <t>24.41</t>
-  </si>
-  <si>
     <t>53.25</t>
-  </si>
-  <si>
-    <t>71.75</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>38.34</t>
-  </si>
-  <si>
-    <t>69.41</t>
-  </si>
-  <si>
-    <t>7.62</t>
-  </si>
-  <si>
-    <t>36.04</t>
-  </si>
-  <si>
-    <t>36.85</t>
-  </si>
-  <si>
-    <t>65.97</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>41.21</t>
-  </si>
-  <si>
-    <t>4.83</t>
-  </si>
-  <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>21.21</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>46.42</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>13.12</t>
-  </si>
-  <si>
-    <t>25.47</t>
-  </si>
-  <si>
-    <t>25.62</t>
-  </si>
-  <si>
-    <t>45.08</t>
-  </si>
-  <si>
-    <t>15.58</t>
-  </si>
-  <si>
-    <t>26.99</t>
-  </si>
-  <si>
-    <t>43.70</t>
-  </si>
-  <si>
-    <t>58.17</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>30.29</t>
-  </si>
-  <si>
-    <t>46.88</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>70.46</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>41.47</t>
-  </si>
-  <si>
-    <t>66.47</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>70.88</t>
-  </si>
-  <si>
-    <t>6.83</t>
-  </si>
-  <si>
-    <t>46.03</t>
-  </si>
-  <si>
-    <t>83.82</t>
-  </si>
-  <si>
-    <t>9.62</t>
-  </si>
-  <si>
-    <t>46.92</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>37.32</t>
-  </si>
-  <si>
-    <t>59.69</t>
-  </si>
-  <si>
-    <t>16.25</t>
-  </si>
-  <si>
-    <t>38.50</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>23.53</t>
-  </si>
-  <si>
-    <t>22.38</t>
-  </si>
-  <si>
-    <t>39.50</t>
-  </si>
-  <si>
-    <t>4.62</t>
-  </si>
-  <si>
-    <t>16.65</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>18.12</t>
-  </si>
-  <si>
-    <t>40.38</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>20.98</t>
-  </si>
-  <si>
-    <t>44.79</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>22.30</t>
-  </si>
-  <si>
-    <t>36.52</t>
-  </si>
-  <si>
-    <t>36.38</t>
-  </si>
-  <si>
-    <t>46.58</t>
-  </si>
-  <si>
-    <t>4.92</t>
-  </si>
-  <si>
-    <t>26.21</t>
-  </si>
-  <si>
-    <t>40.25</t>
-  </si>
-  <si>
-    <t>42.92</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>25.03</t>
-  </si>
-  <si>
-    <t>36.66</t>
-  </si>
-  <si>
-    <t>41.88</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>17.01</t>
-  </si>
-  <si>
-    <t>30.70</t>
-  </si>
-  <si>
-    <t>43.75</t>
-  </si>
-  <si>
-    <t>15.42</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>6.45</t>
-  </si>
-  <si>
-    <t>19.94</t>
-  </si>
-  <si>
-    <t>66.62</t>
-  </si>
-  <si>
-    <t>19.79</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>19.92</t>
-  </si>
-  <si>
-    <t>20.39</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>19.18</t>
-  </si>
-  <si>
-    <t>71.62</t>
-  </si>
-  <si>
-    <t>31.75</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>21.31</t>
-  </si>
-  <si>
-    <t>64.62</t>
-  </si>
-  <si>
-    <t>40.79</t>
-  </si>
-  <si>
-    <t>15.46</t>
-  </si>
-  <si>
-    <t>25.64</t>
-  </si>
-  <si>
-    <t>45.12</t>
-  </si>
-  <si>
-    <t>33.83</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>16.48</t>
-  </si>
-  <si>
-    <t>32.87</t>
-  </si>
-  <si>
-    <t>66.38</t>
-  </si>
-  <si>
-    <t>55.46</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>36.23</t>
-  </si>
-  <si>
-    <t>40.12</t>
-  </si>
-  <si>
-    <t>38.33</t>
-  </si>
-  <si>
-    <t>25.32</t>
-  </si>
-  <si>
-    <t>43.25</t>
-  </si>
-  <si>
-    <t>66.25</t>
-  </si>
-  <si>
-    <t>31.83</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>17.53</t>
-  </si>
-  <si>
-    <t>30.15</t>
-  </si>
-  <si>
-    <t>29.57</t>
-  </si>
-  <si>
-    <t>8.55</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>56.88</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>20.89</t>
-  </si>
-  <si>
-    <t>52.88</t>
-  </si>
-  <si>
-    <t>27.62</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>19.44</t>
-  </si>
-  <si>
-    <t>54.43</t>
-  </si>
-  <si>
-    <t>1.94</t>
-  </si>
-  <si>
-    <t>56.73</t>
-  </si>
-  <si>
-    <t>82.03</t>
-  </si>
-  <si>
-    <t>13.03</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>44.19</t>
-  </si>
-  <si>
-    <t>50.10</t>
-  </si>
-  <si>
-    <t>74.21</t>
-  </si>
-  <si>
-    <t>32.26</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>40.87</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
-    <t>13.24</t>
-  </si>
-  <si>
-    <t>45.61</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>47.37</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>22.67</t>
-  </si>
-  <si>
-    <t>33.46</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>46.25</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>45.04</t>
-  </si>
-  <si>
-    <t>60.38</t>
-  </si>
-  <si>
-    <t>21.67</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>52.07</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>75.77</t>
-  </si>
-  <si>
-    <t>22.26</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>50.53</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>67.63</t>
-  </si>
-  <si>
-    <t>92.92</t>
-  </si>
-  <si>
-    <t>12.60</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>52.97</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>71.21</t>
-  </si>
-  <si>
-    <t>100.56</t>
-  </si>
-  <si>
-    <t>16.26</t>
-  </si>
-  <si>
-    <t>40.42</t>
-  </si>
-  <si>
-    <t>54.07</t>
-  </si>
-  <si>
-    <t>69.56</t>
-  </si>
-  <si>
-    <t>9.72</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>34.76</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>15.28</t>
-  </si>
-  <si>
-    <t>22.87</t>
-  </si>
-  <si>
-    <t>23.72</t>
-  </si>
-  <si>
-    <t>42.14</t>
-  </si>
-  <si>
-    <t>24.04</t>
-  </si>
-  <si>
-    <t>35.18</t>
-  </si>
-  <si>
-    <t>43.37</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>29.97</t>
-  </si>
-  <si>
-    <t>42.08</t>
-  </si>
-  <si>
-    <t>21.19</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>46.33</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>34.92</t>
-  </si>
-  <si>
-    <t>47.67</t>
-  </si>
-  <si>
-    <t>29.63</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>51.49</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>42.15</t>
-  </si>
-  <si>
-    <t>56.33</t>
-  </si>
-  <si>
-    <t>30.68</t>
-  </si>
-  <si>
-    <t>49.31</t>
-  </si>
-  <si>
-    <t>36.58</t>
-  </si>
-  <si>
-    <t>47.35</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>33.94</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>23.34</t>
-  </si>
-  <si>
-    <t>34.04</t>
-  </si>
-  <si>
-    <t>40.36</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>20.47</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>7.07</t>
-  </si>
-  <si>
-    <t>13.82</t>
-  </si>
-  <si>
-    <t>57.77</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>12.56</t>
-  </si>
-  <si>
-    <t>50.58</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>21.25</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>4.77</t>
-  </si>
-  <si>
-    <t>10.35</t>
-  </si>
-  <si>
-    <t>65.73</t>
-  </si>
-  <si>
-    <t>44.02</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>10.12</t>
-  </si>
-  <si>
-    <t>15.64</t>
-  </si>
-  <si>
-    <t>54.32</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>38.78</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>24.53</t>
-  </si>
-  <si>
-    <t>34.42</t>
-  </si>
-  <si>
-    <t>45.26</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>35.46</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>16.16</t>
-  </si>
-  <si>
-    <t>23.28</t>
-  </si>
-  <si>
-    <t>67.47</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>49.93</t>
-  </si>
-  <si>
-    <t>26.91</t>
-  </si>
-  <si>
-    <t>34.21</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>34.85</t>
-  </si>
-  <si>
-    <t>47.75</t>
-  </si>
-  <si>
-    <t>59.51</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>34.39</t>
-  </si>
-  <si>
-    <t>17.19</t>
-  </si>
-  <si>
-    <t>23.67</t>
-  </si>
-  <si>
-    <t>59.43</t>
-  </si>
-  <si>
-    <t>33.35</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>5.82</t>
-  </si>
-  <si>
-    <t>9.87</t>
-  </si>
-  <si>
-    <t>51.01</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>39.73</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>8.62</t>
-  </si>
-  <si>
-    <t>13.95</t>
-  </si>
-  <si>
-    <t>49.50</t>
-  </si>
-  <si>
-    <t>43.24</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>11.75</t>
-  </si>
-  <si>
-    <t>42.59</t>
   </si>
 </sst>
 </file>
@@ -2869,22 +2821,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2892,22 +2844,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2915,22 +2867,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2938,22 +2890,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2961,22 +2913,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2984,22 +2936,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3007,22 +2959,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3030,22 +2982,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3053,22 +3005,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3076,22 +3028,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3099,22 +3051,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3122,22 +3074,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3145,22 +3097,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3168,22 +3120,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3191,22 +3143,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3214,22 +3166,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3237,22 +3189,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3260,22 +3212,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3283,22 +3235,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3306,22 +3258,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3329,22 +3281,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3352,22 +3304,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3375,22 +3327,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3398,22 +3350,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3421,22 +3373,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3444,22 +3396,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>306</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3467,22 +3419,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>306</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3490,22 +3442,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3514,6 +3466,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="14.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -3552,22 +3543,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3575,22 +3566,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3598,22 +3589,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3621,22 +3612,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3644,22 +3635,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3667,22 +3658,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3690,22 +3681,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3713,22 +3704,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3736,22 +3727,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3759,22 +3750,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3782,22 +3773,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>367</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3805,22 +3796,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3828,22 +3819,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3851,22 +3842,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3874,22 +3865,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>122</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3897,22 +3888,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3920,22 +3911,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3943,22 +3934,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3966,22 +3957,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3989,22 +3980,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>122</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4012,22 +4003,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>122</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4035,22 +4026,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4058,22 +4049,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>418</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4081,22 +4072,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4104,22 +4095,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4127,22 +4118,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>122</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4150,22 +4141,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4173,61 +4164,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>430</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="8" width="14.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4274,22 +4226,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4297,22 +4249,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>438</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4320,22 +4272,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4343,22 +4295,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4366,22 +4318,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4389,22 +4341,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4412,22 +4364,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4435,22 +4387,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4458,22 +4410,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>477</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>489</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4481,22 +4433,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4504,22 +4456,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4527,22 +4479,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4550,22 +4502,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>506</v>
+        <v>216</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>509</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4573,22 +4525,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>510</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>514</v>
+        <v>185</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4596,22 +4548,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>153</v>
+        <v>502</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4619,22 +4571,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>520</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>524</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4642,22 +4594,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>526</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>266</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4665,22 +4617,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>314</v>
+        <v>515</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>530</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>516</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>533</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4688,22 +4640,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>535</v>
+        <v>122</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4711,22 +4663,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4734,22 +4686,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>549</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4757,22 +4709,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4780,22 +4732,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>543</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4803,22 +4755,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>418</v>
+        <v>546</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4826,22 +4778,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>553</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4849,22 +4801,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>571</v>
+        <v>217</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4872,22 +4824,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>46</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4895,22 +4847,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>584</v>
+        <v>375</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
